--- a/EXCEL/用户信息模板.xlsx
+++ b/EXCEL/用户信息模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Terry\Web\TMS-forestage\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Napol\Desktop\外包\Program\WEB\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D262DB-AA01-46D6-8163-6DA02FE8F716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF277983-7F1B-43CE-9067-4DEA0A644F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="2100" windowWidth="9960" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="4" r:id="rId1"/>
@@ -35,10 +35,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Workcell</t>
+    <t>Privilege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Privilege</t>
+    <t>Email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +67,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -105,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -135,6 +145,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -420,37 +433,37 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="7" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
+      <c r="C1" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -458,7 +471,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -466,7 +479,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -474,7 +487,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -482,7 +495,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -490,7 +503,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -498,7 +511,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -506,7 +519,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -514,7 +527,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -522,7 +535,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -530,7 +543,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -538,7 +551,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -546,7 +559,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -554,7 +567,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -562,7 +575,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -570,7 +583,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -578,7 +591,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -586,7 +599,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -594,7 +607,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -602,7 +615,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -610,7 +623,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -618,7 +631,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -626,7 +639,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -634,7 +647,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -642,7 +655,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -650,7 +663,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -658,7 +671,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -666,7 +679,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -674,7 +687,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -682,7 +695,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -690,7 +703,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -698,7 +711,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -706,7 +719,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -714,7 +727,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -722,7 +735,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -730,7 +743,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
